--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem4/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem4/99/incorrect_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,131 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Contact DJI Support if this persists</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4-9</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Aircraft Contact DJI Support if this persists</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3-9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3-11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Please check the Compass installation and interference</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5-11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>15</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Unable to hover</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4-6</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem4/99/incorrect_predictions_99.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem4/99/incorrect_predictions_99.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,131 +485,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Contact DJI Support if this persists</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4-9</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Aircraft Contact DJI Support if this persists</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3-9</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Unable to display nearby manned aircraft and anti-collision warnings</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3-11</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>13</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Please check the Compass installation and interference</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5-11</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>15</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Aircraft in Attitude mode Unable to hover Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Unable to hover</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4-6</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
